--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Angpt1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H2">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.221457</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N2">
-        <v>192.664371</v>
+        <v>168.505272</v>
       </c>
       <c r="O2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q2">
-        <v>7.096920548699001</v>
+        <v>10.03551870204</v>
       </c>
       <c r="R2">
-        <v>63.87228493829101</v>
+        <v>90.31966831835999</v>
       </c>
       <c r="S2">
-        <v>0.003853399121115358</v>
+        <v>0.004572946721500408</v>
       </c>
       <c r="T2">
-        <v>0.003853399121115358</v>
+        <v>0.004572946721500408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H3">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1378666371208897</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P3">
-        <v>0.1378666371208896</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q3">
-        <v>1.169444416259</v>
+        <v>1.890764248228333</v>
       </c>
       <c r="R3">
-        <v>10.524999746331</v>
+        <v>17.016878234055</v>
       </c>
       <c r="S3">
-        <v>0.0006349706263277515</v>
+        <v>0.0008615762101373322</v>
       </c>
       <c r="T3">
-        <v>0.0006349706263277514</v>
+        <v>0.0008615762101373321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H4">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.955236666666667</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N4">
-        <v>5.86571</v>
+        <v>9.788392</v>
       </c>
       <c r="O4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q4">
-        <v>0.2160673383233334</v>
+        <v>0.582958561551111</v>
       </c>
       <c r="R4">
-        <v>1.94460604491</v>
+        <v>5.246627053959999</v>
       </c>
       <c r="S4">
-        <v>0.0001173176007655176</v>
+        <v>0.0002656403243286111</v>
       </c>
       <c r="T4">
-        <v>0.0001173176007655176</v>
+        <v>0.0002656403243286111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>22.14783133333333</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H5">
-        <v>66.443494</v>
+        <v>0.536005</v>
       </c>
       <c r="I5">
-        <v>0.9230726249214253</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J5">
-        <v>0.9230726249214253</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>64.221457</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N5">
-        <v>192.664371</v>
+        <v>0.028295</v>
       </c>
       <c r="O5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q5">
-        <v>1422.365997616919</v>
+        <v>0.001685140163888889</v>
       </c>
       <c r="R5">
-        <v>12801.29397855228</v>
+        <v>0.015166261475</v>
       </c>
       <c r="S5">
-        <v>0.7722988932328074</v>
+        <v>7.678782150202045E-07</v>
       </c>
       <c r="T5">
-        <v>0.7722988932328074</v>
+        <v>7.678782150202046E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.582537</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N6">
-        <v>31.747611</v>
+        <v>168.505272</v>
       </c>
       <c r="O6">
-        <v>0.1378666371208897</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P6">
-        <v>0.1378666371208896</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q6">
-        <v>234.3802445547593</v>
+        <v>1244.008781011152</v>
       </c>
       <c r="R6">
-        <v>2109.422200992834</v>
+        <v>11196.07902910037</v>
       </c>
       <c r="S6">
-        <v>0.1272609186162692</v>
+        <v>0.5668651562062519</v>
       </c>
       <c r="T6">
-        <v>0.1272609186162692</v>
+        <v>0.5668651562062519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>66.443494</v>
       </c>
       <c r="I7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,43 +865,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.955236666666667</v>
+        <v>10.582537</v>
       </c>
       <c r="N7">
-        <v>5.86571</v>
+        <v>31.747611</v>
       </c>
       <c r="O7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q7">
-        <v>43.30425191008222</v>
+        <v>234.3802445547593</v>
       </c>
       <c r="R7">
-        <v>389.73826719074</v>
+        <v>2109.422200992834</v>
       </c>
       <c r="S7">
-        <v>0.02351281307234855</v>
+        <v>0.1068014920547431</v>
       </c>
       <c r="T7">
-        <v>0.02351281307234855</v>
+        <v>0.1068014920547431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -906,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.735257333333333</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H8">
-        <v>5.205772000000001</v>
+        <v>66.443494</v>
       </c>
       <c r="I8">
-        <v>0.07232168773036617</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J8">
-        <v>0.07232168773036618</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,43 +927,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.221457</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N8">
-        <v>192.664371</v>
+        <v>9.788392</v>
       </c>
       <c r="O8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q8">
-        <v>111.4407542166013</v>
+        <v>72.26388501351644</v>
       </c>
       <c r="R8">
-        <v>1002.966787949412</v>
+        <v>650.374965121648</v>
       </c>
       <c r="S8">
-        <v>0.06050873775575888</v>
+        <v>0.03292893031909427</v>
       </c>
       <c r="T8">
-        <v>0.06050873775575889</v>
+        <v>0.03292893031909427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.735257333333333</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H9">
-        <v>5.205772000000001</v>
+        <v>66.443494</v>
       </c>
       <c r="I9">
-        <v>0.07232168773036617</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J9">
-        <v>0.07232168773036618</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>10.582537</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N9">
-        <v>31.747611</v>
+        <v>0.028295</v>
       </c>
       <c r="O9">
-        <v>0.1378666371208897</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P9">
-        <v>0.1378666371208896</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q9">
-        <v>18.36342493452133</v>
+        <v>0.2088909625255555</v>
       </c>
       <c r="R9">
-        <v>165.270824410692</v>
+        <v>1.88001866273</v>
       </c>
       <c r="S9">
-        <v>0.009970747878292691</v>
+        <v>9.518663365533096E-05</v>
       </c>
       <c r="T9">
-        <v>0.009970747878292691</v>
+        <v>9.518663365533097E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.967326666666667</v>
+      </c>
+      <c r="H10">
+        <v>26.90198</v>
+      </c>
+      <c r="I10">
+        <v>0.2861285535640985</v>
+      </c>
+      <c r="J10">
+        <v>0.2861285535640984</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>56.16842399999999</v>
+      </c>
+      <c r="N10">
+        <v>168.505272</v>
+      </c>
+      <c r="O10">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="P10">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="Q10">
+        <v>503.6806063598399</v>
+      </c>
+      <c r="R10">
+        <v>4533.12545723856</v>
+      </c>
+      <c r="S10">
+        <v>0.2295152493780274</v>
+      </c>
+      <c r="T10">
+        <v>0.2295152493780273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.967326666666667</v>
+      </c>
+      <c r="H11">
+        <v>26.90198</v>
+      </c>
+      <c r="I11">
+        <v>0.2861285535640985</v>
+      </c>
+      <c r="J11">
+        <v>0.2861285535640984</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.582537</v>
+      </c>
+      <c r="N11">
+        <v>31.747611</v>
+      </c>
+      <c r="O11">
+        <v>0.1511290331103168</v>
+      </c>
+      <c r="P11">
+        <v>0.1511290331103167</v>
+      </c>
+      <c r="Q11">
+        <v>94.89706624108666</v>
+      </c>
+      <c r="R11">
+        <v>854.07359616978</v>
+      </c>
+      <c r="S11">
+        <v>0.04324233164539568</v>
+      </c>
+      <c r="T11">
+        <v>0.04324233164539566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.967326666666667</v>
+      </c>
+      <c r="H12">
+        <v>26.90198</v>
+      </c>
+      <c r="I12">
+        <v>0.2861285535640985</v>
+      </c>
+      <c r="J12">
+        <v>0.2861285535640984</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.262797333333333</v>
+      </c>
+      <c r="N12">
+        <v>9.788392</v>
+      </c>
+      <c r="O12">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="P12">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="Q12">
+        <v>29.25856953512889</v>
+      </c>
+      <c r="R12">
+        <v>263.32712581616</v>
+      </c>
+      <c r="S12">
+        <v>0.01333243289200998</v>
+      </c>
+      <c r="T12">
+        <v>0.01333243289200998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.967326666666667</v>
+      </c>
+      <c r="H13">
+        <v>26.90198</v>
+      </c>
+      <c r="I13">
+        <v>0.2861285535640985</v>
+      </c>
+      <c r="J13">
+        <v>0.2861285535640984</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.028295</v>
+      </c>
+      <c r="O13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q13">
+        <v>0.08457683601111111</v>
+      </c>
+      <c r="R13">
+        <v>0.7611915241</v>
+      </c>
+      <c r="S13">
+        <v>3.853964866542149E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.853964866542149E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.139127</v>
+      </c>
+      <c r="I14">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J14">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>56.16842399999999</v>
+      </c>
+      <c r="N14">
+        <v>168.505272</v>
+      </c>
+      <c r="O14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="P14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="Q14">
+        <v>2.604848108616</v>
+      </c>
+      <c r="R14">
+        <v>23.443632977544</v>
+      </c>
+      <c r="S14">
+        <v>0.001186967208369675</v>
+      </c>
+      <c r="T14">
+        <v>0.001186967208369674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.139127</v>
+      </c>
+      <c r="I15">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J15">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.582537</v>
+      </c>
+      <c r="N15">
+        <v>31.747611</v>
+      </c>
+      <c r="O15">
+        <v>0.1511290331103168</v>
+      </c>
+      <c r="P15">
+        <v>0.1511290331103167</v>
+      </c>
+      <c r="Q15">
+        <v>0.4907722083996667</v>
+      </c>
+      <c r="R15">
+        <v>4.416949875597</v>
+      </c>
+      <c r="S15">
+        <v>0.0002236332000406277</v>
+      </c>
+      <c r="T15">
+        <v>0.0002236332000406276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.735257333333333</v>
-      </c>
-      <c r="H10">
-        <v>5.205772000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.07232168773036617</v>
-      </c>
-      <c r="J10">
-        <v>0.07232168773036618</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.955236666666667</v>
-      </c>
-      <c r="N10">
-        <v>5.86571</v>
-      </c>
-      <c r="O10">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="P10">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="Q10">
-        <v>3.392838764235556</v>
-      </c>
-      <c r="R10">
-        <v>30.53554887812</v>
-      </c>
-      <c r="S10">
-        <v>0.001842202096314593</v>
-      </c>
-      <c r="T10">
-        <v>0.001842202096314593</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.139127</v>
+      </c>
+      <c r="I16">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J16">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.262797333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.788392</v>
+      </c>
+      <c r="O16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="P16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="Q16">
+        <v>0.1513144015315556</v>
+      </c>
+      <c r="R16">
+        <v>1.361829613784</v>
+      </c>
+      <c r="S16">
+        <v>6.89503668862542E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.895036688625419E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.139127</v>
+      </c>
+      <c r="I17">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J17">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.028295</v>
+      </c>
+      <c r="O17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q17">
+        <v>0.0004373998294444444</v>
+      </c>
+      <c r="R17">
+        <v>0.003936598465</v>
+      </c>
+      <c r="S17">
+        <v>1.993126788390333E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.993126788390333E-07</v>
       </c>
     </row>
   </sheetData>
